--- a/congress data.xlsx
+++ b/congress data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seminoleschools-my.sharepoint.com/personal/5926000727_student_myscps_us/Documents/Desktop/GitHub/object-oriented-reverse-parliamentary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{9381E971-6AD8-4542-BB06-FDF939F46D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3031AB32-9DDA-4A86-A7E4-69A4FBD65832}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="8_{9381E971-6AD8-4542-BB06-FDF939F46D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B67691-B94A-430A-8313-8BA3938D8B20}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="840" windowWidth="19200" windowHeight="8760" xr2:uid="{6B819DEC-1CA1-4575-ACB2-25EE183299D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6B819DEC-1CA1-4575-ACB2-25EE183299D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>total</t>
   </si>
@@ -64,15 +66,9 @@
     <t>republicans (session 117 data)</t>
   </si>
   <si>
-    <t>avg total voters</t>
-  </si>
-  <si>
     <t>avg majority votes</t>
   </si>
   <si>
-    <t>avg% that follow majority</t>
-  </si>
-  <si>
     <t>bill name</t>
   </si>
   <si>
@@ -91,25 +87,67 @@
     <t>H.R. 5118</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>H.Amdt. 312 to H.R. 5118</t>
-  </si>
-  <si>
-    <t>H.Amdt. 311 to H.R. 5118</t>
-  </si>
-  <si>
     <t>H.R. 1808</t>
   </si>
   <si>
-    <t>Recommit: H.R. 5118</t>
-  </si>
-  <si>
-    <t>Recommit: H.R. 1808</t>
-  </si>
-  <si>
     <t>% TRUE</t>
+  </si>
+  <si>
+    <t>which bills use suspension of rules</t>
+  </si>
+  <si>
+    <t>H.R. 5376</t>
+  </si>
+  <si>
+    <t>H.Res. 1316</t>
+  </si>
+  <si>
+    <t>H.Res. 1302</t>
+  </si>
+  <si>
+    <t>H.Res. 1300</t>
+  </si>
+  <si>
+    <t>H.R. 4346</t>
+  </si>
+  <si>
+    <t>H.Res. 1289</t>
+  </si>
+  <si>
+    <t>House Vote #401</t>
+  </si>
+  <si>
+    <t>H.R. 4040</t>
+  </si>
+  <si>
+    <t>H.R. 3771</t>
+  </si>
+  <si>
+    <t>H.R. 6929</t>
+  </si>
+  <si>
+    <t>H.Res. 1256</t>
+  </si>
+  <si>
+    <t>H.R. 7734</t>
+  </si>
+  <si>
+    <t>H.R. 8454</t>
+  </si>
+  <si>
+    <t>H.R. 7180</t>
+  </si>
+  <si>
+    <t>H.R. 3588</t>
+  </si>
+  <si>
+    <t>H.R. 7289</t>
+  </si>
+  <si>
+    <t>H.R. 6552</t>
+  </si>
+  <si>
+    <t>H.Res. 1254</t>
   </si>
 </sst>
 </file>
@@ -153,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,12 +200,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -178,6 +274,93 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{89EB78A5-2C41-4A4C-B04B-44CF3DDB6467}" name="Table5" displayName="Table5" ref="A2:E30" totalsRowShown="0">
+  <autoFilter ref="A2:E30" xr:uid="{89EB78A5-2C41-4A4C-B04B-44CF3DDB6467}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CFC1DD74-01C3-4602-8C98-38ED6C50E8DE}" name="total">
+      <calculatedColumnFormula>B3+C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FF6C2793-2E7B-4466-A294-AA1DB30ABFFA}" name="yes"/>
+    <tableColumn id="3" xr3:uid="{65018472-1C2C-4911-B05A-26076A824C2F}" name="no"/>
+    <tableColumn id="4" xr3:uid="{B3228B7E-DD3A-4A58-B122-B4EDE180CFC3}" name="majority of the party">
+      <calculatedColumnFormula>MAX(B3,C3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EBB4C002-DD64-4F53-B9E1-32732541B08E}" name="% that followed majority" dataDxfId="3" dataCellStyle="Percent">
+      <calculatedColumnFormula>D3/A3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8FC9CC1D-BD7F-40A6-AC7D-EB6EA6AB33C7}" name="Table6" displayName="Table6" ref="G2:I3" totalsRowShown="0">
+  <autoFilter ref="G2:I3" xr:uid="{8FC9CC1D-BD7F-40A6-AC7D-EB6EA6AB33C7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C0B76F25-4DDB-493C-8DC5-57F5C3B3F854}" name="avg total" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(Table5[total])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6455F5EB-0FD6-4F85-B1AA-3CC2E7CFF288}" name="avg majority votes" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(Table5[majority of the party])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D67C2C42-E682-4A43-B583-2AC430886764}" name="avg % that follow majority" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table5[% that followed majority])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{17AFC79C-48B2-454C-A9B1-8C87855F1516}" name="Table3" displayName="Table3" ref="A2:E32" totalsRowShown="0">
+  <autoFilter ref="A2:E32" xr:uid="{17AFC79C-48B2-454C-A9B1-8C87855F1516}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{87A7FBB4-EE4B-436B-A5EF-4CDAA5AB3097}" name="total">
+      <calculatedColumnFormula>B3+C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{114CC118-2F9E-4426-89DA-D443514051AF}" name="yes"/>
+    <tableColumn id="3" xr3:uid="{CDDE6313-9ED4-47AB-AB59-31715416FE3C}" name="no"/>
+    <tableColumn id="4" xr3:uid="{D73F4659-4C7A-4CCB-86C5-19986155C4C7}" name="majority of the party">
+      <calculatedColumnFormula>MAX(B3,C3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6E6A114E-A6AF-47ED-917B-E2DE8755DF41}" name="% that followed majority" dataDxfId="7" dataCellStyle="Percent">
+      <calculatedColumnFormula>D3/A3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C0008549-1571-4145-97EE-3F216D5C09EF}" name="Table4" displayName="Table4" ref="G2:I3" totalsRowShown="0">
+  <autoFilter ref="G2:I3" xr:uid="{C0008549-1571-4145-97EE-3F216D5C09EF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C4AA2FB3-7AEC-4E79-873F-31B4DEB904C8}" name="avg total" dataDxfId="6">
+      <calculatedColumnFormula>AVERAGE(Table3[total])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8728CED6-6D9A-43BF-B085-C76F05598C4A}" name="avg majority votes" dataDxfId="5">
+      <calculatedColumnFormula>AVERAGE(Table3[majority of the party])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D8BF86E2-E164-495C-81CA-3A38D51ED60F}" name="avg % that follow majority" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(Table3[% that followed majority])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4EE8AABA-8340-4329-AB9C-6F00EE0E6FF1}" name="Table2" displayName="Table2" ref="A2:B30" totalsRowShown="0">
+  <autoFilter ref="A2:B30" xr:uid="{4EE8AABA-8340-4329-AB9C-6F00EE0E6FF1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0B08EDDB-E314-4753-8B87-9A73337E4E3A}" name="bill name"/>
+    <tableColumn id="2" xr3:uid="{D2CB7370-9E86-4EC7-92BA-D0EBFBF40731}" name="suspension of rules?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,21 +660,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD801A7-B116-4A90-B311-D71C618AA7DF}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6328125" bestFit="1" customWidth="1"/>
@@ -499,32 +683,16 @@
     <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -541,34 +709,643 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <f>B3+C3</f>
+        <v>182</v>
+      </c>
+      <c r="B3" s="4">
+        <v>182</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>MAX(B3,C3)</f>
+        <v>182</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/A3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <f>AVERAGE(Table5[total])</f>
+        <v>162.85714285714286</v>
+      </c>
+      <c r="H3" s="3">
+        <f>AVERAGE(Table5[majority of the party])</f>
+        <v>150</v>
+      </c>
+      <c r="I3" s="2">
+        <f>AVERAGE(Table5[% that followed majority])</f>
+        <v>0.9250412284722066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A11" si="0">B4+C4</f>
+        <v>189</v>
+      </c>
+      <c r="B4" s="4">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D11" si="1">MAX(B4,C4)</f>
+        <v>180</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4/A4</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>134</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E11" si="2">D5/A5</f>
+        <v>0.68020304568527923</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>198</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99497487437185927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="B8" s="4">
+        <v>74</v>
+      </c>
+      <c r="C8" s="4">
+        <v>128</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63366336633663367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>203</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99509803921568629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C10" s="4">
+        <v>208</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99047619047619051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="B11" s="4">
+        <v>207</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99519230769230771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>207</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>207</v>
+      </c>
+      <c r="D12">
+        <f>MAX(B12,C12)</f>
+        <v>207</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/A12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>208</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>208</v>
+      </c>
+      <c r="D13">
+        <f>MAX(B13,C13)</f>
+        <v>208</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13/A13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <f>MAX(B14,C14)</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14/A14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <f>MAX(B15,C15)</f>
+        <v>49</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15/A15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <f>MAX(B16,C16)</f>
+        <v>38</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16/A16</f>
+        <v>0.77551020408163263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>MAX(B17,C17)</f>
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17/A17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>MAX(B18,C18)</f>
+        <v>47</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18/A18</f>
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <f>MAX(B19,C19)</f>
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19/A19</f>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>182</v>
+      </c>
+      <c r="B20">
+        <v>182</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>MAX(B20,C20)</f>
+        <v>182</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20/A20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>189</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <f>MAX(B21,C21)</f>
+        <v>180</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21/A21</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>197</v>
+      </c>
+      <c r="B22">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>134</v>
+      </c>
+      <c r="D22">
+        <f>MAX(B22,C22)</f>
+        <v>134</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22/A22</f>
+        <v>0.68020304568527923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>199</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>198</v>
+      </c>
+      <c r="D23">
+        <f>MAX(B23,C23)</f>
+        <v>198</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23/A23</f>
+        <v>0.99497487437185927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>210</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>208</v>
+      </c>
+      <c r="D24">
+        <f>MAX(B24,C24)</f>
+        <v>208</v>
+      </c>
+      <c r="E24" s="1">
+        <f>D24/A24</f>
+        <v>0.99047619047619051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>208</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>208</v>
+      </c>
+      <c r="D25">
+        <f>MAX(B25,C25)</f>
+        <v>208</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25/A25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>204</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>204</v>
+      </c>
+      <c r="D26">
+        <f>MAX(B26,C26)</f>
+        <v>204</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26/A26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>211</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>187</v>
+      </c>
+      <c r="D27">
+        <f>MAX(B27,C27)</f>
+        <v>187</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27/A27</f>
+        <v>0.88625592417061616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>207</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>207</v>
+      </c>
+      <c r="D28">
+        <f>MAX(B28,C28)</f>
+        <v>207</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28/A28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>MAX(B29,C29)</f>
+        <v>46</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29/A29</f>
+        <v>0.97872340425531912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>208</v>
+      </c>
+      <c r="B30">
+        <v>118</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <f>MAX(B30,C30)</f>
+        <v>118</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30/A30</f>
+        <v>0.56730769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F7D8A-BC80-4994-8B3F-6D848C0FB39A}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3">
-        <f>AVERAGE(A3:A11,G3:G11)</f>
-        <v>208.11111111111111</v>
-      </c>
-      <c r="N2" s="3">
-        <f>AVERAGE(D3:D11,J3:J11)</f>
-        <v>194.44444444444446</v>
-      </c>
-      <c r="O2" s="2">
-        <f>AVERAGE(E3:E11,K3:K11)</f>
-        <v>0.9328258235366006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>B3+C3</f>
         <v>210</v>
@@ -587,28 +1364,22 @@
         <f>D3/A3</f>
         <v>0.57619047619047614</v>
       </c>
-      <c r="G3">
-        <f>H3+I3</f>
-        <v>182</v>
-      </c>
-      <c r="H3">
-        <v>182</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>MAX(H3,I3)</f>
-        <v>182</v>
-      </c>
-      <c r="K3" s="1">
-        <f>J3/G3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G3" s="3">
+        <f>AVERAGE(Table3[total])</f>
+        <v>165.86666666666667</v>
+      </c>
+      <c r="H3" s="3">
+        <f>AVERAGE(Table3[majority of the party])</f>
+        <v>159.26666666666668</v>
+      </c>
+      <c r="I3" s="2">
+        <f>AVERAGE(Table3[% that followed majority])</f>
+        <v>0.96756460888240292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">B4+C4</f>
+        <f>B4+C4</f>
         <v>211</v>
       </c>
       <c r="B4">
@@ -618,35 +1389,17 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D11" si="1">MAX(B4,C4)</f>
+        <f>MAX(B4,C4)</f>
         <v>211</v>
       </c>
       <c r="E4" s="1">
         <f>D4/A4</f>
         <v>1</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G11" si="2">H4+I4</f>
-        <v>189</v>
-      </c>
-      <c r="H4">
-        <v>180</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J11" si="3">MAX(H4,I4)</f>
-        <v>180</v>
-      </c>
-      <c r="K4" s="1">
-        <f>J4/G4</f>
-        <v>0.95238095238095233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>B5+C5</f>
         <v>215</v>
       </c>
       <c r="B5">
@@ -656,35 +1409,17 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f>MAX(B5,C5)</f>
         <v>215</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E11" si="4">D5/A5</f>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>197</v>
-      </c>
-      <c r="H5">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <v>134</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" ref="K5:K11" si="5">J5/G5</f>
-        <v>0.68020304568527923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <f>D5/A5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>B6+C6</f>
         <v>218</v>
       </c>
       <c r="B6">
@@ -694,35 +1429,17 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f>MAX(B6,C6)</f>
         <v>217</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="4"/>
+        <f>D6/A6</f>
         <v>0.99541284403669728</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>199</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>198</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.99497487437185927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>B7+C7</f>
         <v>218</v>
       </c>
       <c r="B7">
@@ -732,35 +1449,17 @@
         <v>218</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f>MAX(B7,C7)</f>
         <v>218</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="H7">
-        <v>200</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <f>D7/A7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>B8+C8</f>
         <v>222</v>
       </c>
       <c r="B8">
@@ -770,35 +1469,17 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f>MAX(B8,C8)</f>
         <v>222</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="H8">
-        <v>74</v>
-      </c>
-      <c r="I8">
-        <v>128</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="5"/>
-        <v>0.63366336633663367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <f>D8/A8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>B9+C9</f>
         <v>222</v>
       </c>
       <c r="B9">
@@ -808,35 +1489,17 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f>MAX(B9,C9)</f>
         <v>222</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>204</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>203</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>203</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="5"/>
-        <v>0.99509803921568629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <f>D9/A9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>B10+C10</f>
         <v>220</v>
       </c>
       <c r="B10">
@@ -846,35 +1509,17 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f>MAX(B10,C10)</f>
         <v>215</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="4"/>
+        <f>D10/A10</f>
         <v>0.97727272727272729</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>208</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>208</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="5"/>
-        <v>0.99047619047619051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>B11+C11</f>
         <v>219</v>
       </c>
       <c r="B11">
@@ -884,111 +1529,584 @@
         <v>219</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f>MAX(B11,C11)</f>
         <v>219</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>208</v>
-      </c>
-      <c r="H11">
-        <v>207</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>207</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.99519230769230771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <f>D11/A11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>220</v>
+      </c>
+      <c r="B12">
+        <v>220</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>MAX(B12,C12)</f>
+        <v>220</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/A12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>219</v>
+      </c>
+      <c r="B13">
+        <v>219</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>MAX(B13,C13)</f>
+        <v>219</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13/A13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>MAX(B14,C14)</f>
+        <v>48</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14/A14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <f>MAX(B15,C15)</f>
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15/A15</f>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>MAX(B16,C16)</f>
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16/A16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <f>MAX(B17,C17)</f>
+        <v>45</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17/A17</f>
+        <v>0.97826086956521741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>MAX(B18,C18)</f>
+        <v>46</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18/A18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <f>MAX(B19,C19)</f>
+        <v>45</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19/A19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <f>MAX(B20,C20)</f>
+        <v>45</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20/A20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <f>MAX(B21,C21)</f>
+        <v>47</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21/A21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22">
+        <v>121</v>
+      </c>
+      <c r="C22">
+        <v>89</v>
+      </c>
+      <c r="D22">
+        <f>MAX(B22,C22)</f>
+        <v>121</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22/A22</f>
+        <v>0.57619047619047614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>211</v>
+      </c>
+      <c r="B23">
+        <v>211</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>MAX(B23,C23)</f>
+        <v>211</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23/A23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>215</v>
+      </c>
+      <c r="B24">
+        <v>215</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>MAX(B24,C24)</f>
+        <v>215</v>
+      </c>
+      <c r="E24" s="1">
+        <f>D24/A24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>218</v>
+      </c>
+      <c r="B25">
+        <v>217</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>MAX(B25,C25)</f>
+        <v>217</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25/A25</f>
+        <v>0.99541284403669728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>220</v>
+      </c>
+      <c r="B26">
+        <v>215</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f>MAX(B26,C26)</f>
+        <v>215</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26/A26</f>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>220</v>
+      </c>
+      <c r="B27">
+        <v>217</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f>MAX(B27,C27)</f>
+        <v>217</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27/A27</f>
+        <v>0.98636363636363633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>220</v>
+      </c>
+      <c r="B28">
+        <v>218</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>MAX(B28,C28)</f>
+        <v>218</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28/A28</f>
+        <v>0.99090909090909096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>219</v>
+      </c>
+      <c r="B29">
+        <v>219</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>MAX(B29,C29)</f>
+        <v>219</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29/A29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>217</v>
+      </c>
+      <c r="B30">
+        <v>216</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>MAX(B30,C30)</f>
+        <v>216</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30/A30</f>
+        <v>0.99539170506912444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>MAX(B31,C31)</f>
+        <v>45</v>
+      </c>
+      <c r="E31" s="1">
+        <f>D31/A31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>218</v>
+      </c>
+      <c r="B32">
+        <v>218</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>MAX(B32,C32)</f>
+        <v>218</v>
+      </c>
+      <c r="E32" s="1">
+        <f>D32/A32</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16D5BB7-FCB7-4FA5-96DF-89CD03D5AC39}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>COUNTIFS(Table2[suspension of rules?],TRUE)/(COUNTIFS(Table2[suspension of rules?],TRUE)+COUNTIFS(Table2[suspension of rules?],FALSE))</f>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <f>AVERAGE(A3:A11)</f>
-        <v>217.22222222222223</v>
-      </c>
-      <c r="D13" s="3">
-        <f>AVERAGE(D3:D11)</f>
-        <v>206.66666666666666</v>
-      </c>
-      <c r="E13" s="2">
-        <f>AVERAGE(E3:E11)</f>
-        <v>0.94987511638887789</v>
-      </c>
-      <c r="G13" s="3">
-        <f>AVERAGE(G3:G11)</f>
-        <v>199</v>
-      </c>
-      <c r="J13" s="3">
-        <f>AVERAGE(J3:J11)</f>
-        <v>182.22222222222223</v>
-      </c>
-      <c r="K13" s="2">
-        <f>AVERAGE(K3:K11)</f>
-        <v>0.91577653068432319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -996,39 +2114,39 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -1036,18 +2154,68 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>